--- a/robort/bill.xlsx
+++ b/robort/bill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>no</t>
   </si>
@@ -39,21 +39,9 @@
     <t>link in daraz</t>
   </si>
   <si>
-    <t>esp32</t>
-  </si>
-  <si>
-    <t>ESP32-S3 A7670E 4G Development Board Blue Board PCB Supports 4G LTE Cat-1/2G Bluetooth5 GNSS Positioning WiFi Development Board</t>
-  </si>
-  <si>
-    <t>https://www.daraz.com.np/products/esp32-a7670e-4g-development-board-blue-board-pcb-supports-4g-lte-cat-12g-bluetooth5-gnss-positioning-wifi-development-board-i140287248-s1073312821.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253AESP32-S3%252BA7670E%252B4G%252BDevelopment%252BBoard%252BBlue%252BBoard%252BPCB%252BSupports%252B4G%252BLTE%252BCat-1%25252F2G%252BBluetooth5%252BGNSS%252BPositioning%252BWiFi%252BDevelopment%252BBoard%253Bnid%253A140287248%253Bsrc%253ALazadaMainSrp%253Brn%253A833f9d5dc41061ae6f9d444dc81e6d59%253Bregion%253Anp%253Bsku%253A140287248_NP%253Bprice%253A10748%253Bclient%253Adesktop%253Bsupplier_id%253A900216784025%253Bbiz_source%253Ah5_external%253Bslot%253A0%253Butlog_bucket_id%253A470687%253Basc_category_id%253A9733%253Bitem_id%253A140287248%253Bsku_id%253A1073312821%253Bshop_id%253A133979%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Overseas&amp;price=10748&amp;priceCompare=skuId%3A1073312821%3Bsource%3Alazada-search-voucher%3Bsn%3A833f9d5dc41061ae6f9d444dc81e6d59%3BoriginPrice%3A1074800%3BdisplayPrice%3A1074800%3BsinglePromotionId%3A-1%3BsingleToolCode%3AmockedSalePrice%3BvoucherPricePlugin%3A0%3Btimestamp%3A1735378607707&amp;ratingscore=5.0&amp;request_id=833f9d5dc41061ae6f9d444dc81e6d59&amp;review=1&amp;sale=1&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.0&amp;stock=1</t>
-  </si>
-  <si>
     <t>servo motor</t>
   </si>
   <si>
-    <t>Original MG995 Metal Gear Servo Motor</t>
-  </si>
-  <si>
     <t>jumper wire</t>
   </si>
   <si>
@@ -72,28 +60,73 @@
     <t>https://www.daraz.com.np/products/lm2596-dc-dc-buck-converter-step-down-power-module-i132750934-s1047435167.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Astep-down%252B%252528buck%252529%253Bnid%253A132750934%253Bsrc%253ALazadaMainSrp%253Brn%253A20d3e3826c10073e0a44da7abe321d19%253Bregion%253Anp%253Bsku%253A132750934_NP%253Bprice%253A160%253Bclient%253Adesktop%253Bsupplier_id%253A597%253Bbiz_source%253Ah5_external%253Bslot%253A0%253Butlog_bucket_id%253A470687%253Basc_category_id%253A10000489%253Bitem_id%253A132750934%253Bsku_id%253A1047435167%253Bshop_id%253A8820%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Bagmati%20Province&amp;price=1.6E%202&amp;priceCompare=skuId%3A1047435167%3Bsource%3Alazada-search-voucher%3Bsn%3A20d3e3826c10073e0a44da7abe321d19%3BoriginPrice%3A16000%3BdisplayPrice%3A16000%3BsinglePromotionId%3A50000007218007%3BsingleToolCode%3ApromPrice%3BvoucherPricePlugin%3A0%3Btimestamp%3A1734188890526&amp;ratingscore=4.6521739130434785&amp;request_id=20d3e3826c10073e0a44da7abe321d19&amp;review=23&amp;sale=98&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.0&amp;stock=1</t>
   </si>
   <si>
-    <t>9v  battery connector</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>9v power supply</t>
-  </si>
-  <si>
     <t>microphone</t>
   </si>
   <si>
-    <t>https://www.daraz.com.np/products/k9-dual-wireless-collar-clip-professional-microphone-for-live-video-sound-recorded-type-c-iphone-i128475869-s1035973532.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Amicrophone%253Bnid%253A128475869%253Bsrc%253ALazadaMainSrp%253Brn%253A2173ce44ea915067b3bf9e4809129873%253Bregion%253Anp%253Bsku%253A128475869_NP%253Bprice%253A873%253Bclient%253Adesktop%253Bsupplier_id%253A900181728047%253Bbiz_source%253Ah5_external%253Bslot%253A1%253Butlog_bucket_id%253A470687%253Basc_category_id%253A7488%253Bitem_id%253A128475869%253Bsku_id%253A1035973532%253Bshop_id%253A110239%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Madhesh%20Province&amp;price=873&amp;priceCompare=skuId%3A1035973532%3Bsource%3Alazada-search-voucher%3Bsn%3A2173ce44ea915067b3bf9e4809129873%3BoriginPrice%3A87300%3BdisplayPrice%3A87300%3BsinglePromotionId%3A50000008218011%3BsingleToolCode%3ApromPrice%3BvoucherPricePlugin%3A0%3Btimestamp%3A1735380565879&amp;ratingscore=3.5675675675675675&amp;request_id=2173ce44ea915067b3bf9e4809129873&amp;review=74&amp;sale=662&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.1&amp;stock=1</t>
-  </si>
-  <si>
-    <t>K9 Dual Wireless Collar Clip Professional Microphone For Live, Video, Sound Recorded Type-C &amp; Iphone</t>
-  </si>
-  <si>
-    <t>https://www.daraz.com.np/products/original-mg995-metal-gear-servo-motor-i128183917-s1035310447.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253AOriginal%252BMG995%252BMetal%252BGear%252BServo%252BMotor%253Bnid%253A128183917%253Bsrc%253ALazadaMainSrp%253Brn%253Ac6b8cf69cd5b167ae607924d56c86815%253Bregion%253Anp%253Bsku%253A128183917_NP%253Bprice%253A599%253Bclient%253Adesktop%253Bsupplier_id%253A900152367068%253Bbiz_source%253Ah5_external%253Bslot%253A0%253Butlog_bucket_id%253A470687%253Basc_category_id%253A10000489%253Bitem_id%253A128183917%253Bsku_id%253A1035310447%253Bshop_id%253A45034%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Bagmati%20Province&amp;price=599&amp;priceCompare=skuId%3A1035310447%3Bsource%3Alazada-search-voucher%3Bsn%3Ac6b8cf69cd5b167ae607924d56c86815%3BoriginPrice%3A59900%3BdisplayPrice%3A59900%3BsinglePromotionId%3A-1%3BsingleToolCode%3A-1%3BvoucherPricePlugin%3A0%3Btimestamp%3A1735381266778&amp;ratingscore=5.0&amp;request_id=c6b8cf69cd5b167ae607924d56c86815&amp;review=2&amp;sale=16&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.0&amp;stock=1</t>
+    <t>respberry pi 5</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 5 (8GB RAM)</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/raspberry-pi-5-8gb-ram-high-performance-single-board-computer-i133147946.html</t>
+  </si>
+  <si>
+    <t>respberry pi 5 webcam</t>
+  </si>
+  <si>
+    <t>zero 2w webcam</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/for-zero-2w-camera-5mp-rpi-zero-camera15-cm-ffc-i134654296.html</t>
+  </si>
+  <si>
+    <t>mini USB microphone</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/mini-usb-microphone-i106549188.html</t>
+  </si>
+  <si>
+    <t>cooler</t>
+  </si>
+  <si>
+    <t>Active Cooler for Raspberry Pi 5</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/active-cooler-for-raspberry-pi-5-temperature-controlled-blower-fan-aluminium-heatsink-with-thermal-tapes-i154407994-s1113247723.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Araspberry%252Bpi%252Bcooler%253Bnid%253A154407994%253Bsrc%253ALazadaMainSrp%253Brn%253A27f24fd2f9953c1dc7ce8b6f2ecd941b%253Bregion%253Anp%253Bsku%253A154407994_NP%253Bprice%253A1416%253Bclient%253Adesktop%253Bsupplier_id%253A900156978057%253Bbiz_source%253Ah5_external%253Bslot%253A6%253Butlog_bucket_id%253A470687%253Basc_category_id%253A111%253Bitem_id%253A154407994%253Bsku_id%253A1113247723%253Bshop_id%253A87928%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Bagmati%20Province&amp;price=1416&amp;priceCompare=skuId%3A1113247723%3Bsource%3Alazada-search-voucher%3Bsn%3A27f24fd2f9953c1dc7ce8b6f2ecd941b%3BoriginPrice%3A141600%3BdisplayPrice%3A141600%3BsinglePromotionId%3A-1%3BsingleToolCode%3A-1%3BvoucherPricePlugin%3A0%3Btimestamp%3A1736762659629&amp;ratingscore=&amp;request_id=27f24fd2f9953c1dc7ce8b6f2ecd941b&amp;review=&amp;sale=2&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.6&amp;stock=1</t>
+  </si>
+  <si>
+    <t>battery connector</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/waveshare-ups-hat-d-for-raspberry-pi-supports-21700-li-battery-not-included-5v-uninterruptible-power-supply-pogo-pins-connector-i136060103-s1061344141.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Araspberry%252Bpi%252B5%252Bpower%253Bnid%253A136060103%253Bsrc%253ALazadaMainSrp%253Brn%253A6abc423a169f3b2d52ef249d55ad6572%253Bregion%253Anp%253Bsku%253A136060103_NP%253Bprice%253A2399%253Bclient%253Adesktop%253Bsupplier_id%253A900152292008%253Bbiz_source%253Ah5_external%253Bslot%253A13%253Butlog_bucket_id%253A470687%253Basc_category_id%253A10000489%253Bitem_id%253A136060103%253Bsku_id%253A1061344141%253Bshop_id%253A42782%253BtemplateInfo%253A-1_A3_C%2523&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Gandaki%20Province&amp;price=2399&amp;priceCompare=skuId%3A1061344141%3Bsource%3Alazada-search-voucher%3Bsn%3A6abc423a169f3b2d52ef249d55ad6572%3BoriginPrice%3A239900%3BdisplayPrice%3A239900%3BsinglePromotionId%3A-1%3BsingleToolCode%3A-1%3BvoucherPricePlugin%3A0%3Btimestamp%3A1736762821357&amp;ratingscore=&amp;request_id=6abc423a169f3b2d52ef249d55ad6572&amp;review=&amp;sale=0&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.13&amp;stock=0</t>
+  </si>
+  <si>
+    <t>Waveshare UPS HAT (D) for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>speaker</t>
+  </si>
+  <si>
+    <t>cavity speaker ultra thin</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/4-ohm-3w8-ohm-2w-speaker-square-small-cavity-notebook-computer-3525-ultra-thin-box-speaker-audio-accessoriesa-jue-i168165087-s1183258908.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Acavity%252Bspeaker%253Bnid%253A168165087%253Bsrc%253ALazadaMainSrp%253Brn%253A64c718440a22c4b8c22043e8fe390732%253Bregion%253Anp%253Bsku%253A168165087_NP%253Bprice%253A500%253Bclient%253Adesktop%253Bsupplier_id%253A900239488457%253Bbiz_source%253Ah5_external%253Bslot%253A24%253Butlog_bucket_id%253A470687%253Basc_category_id%253A9546%253Bitem_id%253A168165087%253Bsku_id%253A1183258908%253Bshop_id%253A148104%253BtemplateInfo%253A&amp;freeshipping=1&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Overseas&amp;price=5E%202&amp;priceCompare=skuId%3A1183258908%3Bsource%3Alazada-search-voucher%3Bsn%3A64c718440a22c4b8c22043e8fe390732%3BoriginPrice%3A50000%3BdisplayPrice%3A50000%3BsinglePromotionId%3A-1%3BsingleToolCode%3AmockedSalePrice%3BvoucherPricePlugin%3A0%3Btimestamp%3A1736763421435&amp;ratingscore=&amp;request_id=64c718440a22c4b8c22043e8fe390732&amp;review=&amp;sale=0&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.24&amp;stock=1</t>
+  </si>
+  <si>
+    <t>power supply</t>
+  </si>
+  <si>
+    <t>mg995</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/original-mg995-metal-gear-servo-motor-i128183917-s1035310447.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253Aservo%252Bmotor%253Bnid%253A128183917%253Bsrc%253ALazadaMainSrp%253Brn%253A97083af21031a9ab6240d496db6395fe%253Bregion%253Anp%253Bsku%253A128183917_NP%253Bprice%253A599%253Bclient%253Adesktop%253Bsupplier_id%253A900152367068%253Bbiz_source%253Ah5_external%253Bslot%253A6%253Butlog_bucket_id%253A470687%253Basc_category_id%253A10000489%253Bitem_id%253A128183917%253Bsku_id%253A1035310447%253Bshop_id%253A45034%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Bagmati%20Province&amp;price=599&amp;priceCompare=skuId%3A1035310447%3Bsource%3Alazada-search-voucher%3Bsn%3A97083af21031a9ab6240d496db6395fe%3BoriginPrice%3A59900%3BdisplayPrice%3A59900%3BsinglePromotionId%3A-1%3BsingleToolCode%3A-1%3BvoucherPricePlugin%3A0%3Btimestamp%3A1736764758928&amp;ratingscore=5.0&amp;request_id=97083af21031a9ab6240d496db6395fe&amp;review=2&amp;sale=21&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlist.list.6&amp;stock=1</t>
+  </si>
+  <si>
+    <t>3.7V 2000mAh Battery</t>
+  </si>
+  <si>
+    <t>https://www.daraz.com.np/products/37v-2000mah-battery-pointed-top18650-lithium-rechargeable-power-batteries-for-toy-flashlight-calculator-radio-powerbank-i128833071-s1036714985.html?c=&amp;channelLpJumpArgs=&amp;clickTrackInfo=query%253A%253Bnid%253A128833071%253Bsrc%253ALazadaMainSrp%253Brn%253A41cfef7b527d734c123c268fc00ab129%253Bregion%253Anp%253Bsku%253A128833071_NP%253Bprice%253A159%253Bclient%253Adesktop%253Bsupplier_id%253A900151146269%253Bbiz_source%253Ah5_external%253Bslot%253A8%253Butlog_bucket_id%253A470687%253Basc_category_id%253A10000488%253Bitem_id%253A128833071%253Bsku_id%253A1036714985%253Bshop_id%253A22028%253BtemplateInfo%253A&amp;freeshipping=0&amp;fs_ab=1&amp;fuse_fs=&amp;lang=en&amp;location=Madhesh%20Province&amp;price=159&amp;priceCompare=skuId%3A1036714985%3Bsource%3Alazada-search-voucher%3Bsn%3A41cfef7b527d734c123c268fc00ab129%3BoriginPrice%3A15900%3BdisplayPrice%3A15900%3BsinglePromotionId%3A-1%3BsingleToolCode%3AmockedSalePrice%3BvoucherPricePlugin%3A0%3Btimestamp%3A1736765333467&amp;ratingscore=4.714285714285714&amp;request_id=41cfef7b527d734c123c268fc00ab129&amp;review=7&amp;sale=247&amp;search=1&amp;source=search&amp;spm=a2a0e.searchlistcategory.list.8&amp;stock=1</t>
   </si>
 </sst>
 </file>
@@ -441,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -478,28 +511,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D2">
-        <v>10748</v>
+        <v>29500</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <f>D2*E2</f>
-        <v>10748</v>
+        <v>29500</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -507,23 +540,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>599</v>
+        <v>3600</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>D3*E3</f>
-        <v>2396</v>
+        <v>3600</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -531,10 +564,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>220</v>
@@ -547,7 +580,7 @@
         <v>220</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -555,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>175</v>
@@ -571,7 +604,7 @@
         <v>700</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -579,23 +612,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>2399</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>2399</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -603,56 +636,128 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>7200</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>1225</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F11" si="1">D8*E8</f>
+        <v>1225</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>1800</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F4:F9" si="1">D8*E8</f>
-        <v>3600</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>23</v>
+      <c r="D9">
+        <v>1416</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1416</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="E11" t="s">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>599</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4792</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="F11">
-        <f>F2+F3+F4+F5+F6+F7+F8</f>
-        <v>18224</v>
+      <c r="F15">
+        <f>F2+F3+F4+F5+F6+F7+F8+F9+F10+F11</f>
+        <v>52052</v>
       </c>
     </row>
   </sheetData>
